--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WS\RayCatch\src\com\generic\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tariq Abu Alrob\git\RayCatch\src\com\generic\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E325A34-8FB3-4E52-BA0C-775369FCECDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EF7816-056E-4EB3-9848-9A53B69DBFE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="134">
   <si>
     <t>Browser</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>Italy Milan,Italy Castera,Cyprus Nicosia,</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1123,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1131,7 +1137,7 @@
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="30">
+    <row r="1" spans="1:6" s="19" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1279,7 +1285,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I33"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2461,10 +2467,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2473,10 +2479,11 @@
     <col min="2" max="2" width="10.140625" style="6" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20.85546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="5" width="43.5703125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -2489,8 +2496,11 @@
       <c r="D1" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -2502,6 +2512,9 @@
       </c>
       <c r="D2" s="30" t="s">
         <v>127</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tariq Abu Alrob\git\RayCatch\src\com\generic\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WS\RayCatch\src\com\generic\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EF7816-056E-4EB3-9848-9A53B69DBFE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B361FD6-508E-4261-A6AC-F461D16C1BB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="112">
   <si>
     <t>Browser</t>
   </si>
@@ -173,91 +173,18 @@
     <t>password</t>
   </si>
   <si>
-    <t>fieldsValidation</t>
-  </si>
-  <si>
-    <t>emptyData</t>
-  </si>
-  <si>
     <t>U-13</t>
   </si>
   <si>
     <t>LGN-1</t>
   </si>
   <si>
-    <t>Logn with valid information</t>
-  </si>
-  <si>
-    <t>Success login</t>
-  </si>
-  <si>
     <t>U-14</t>
   </si>
   <si>
-    <t>LGN-2</t>
-  </si>
-  <si>
-    <t>Try to login with invalid email</t>
-  </si>
-  <si>
-    <t>invalidUserEmail</t>
-  </si>
-  <si>
     <t>U-15</t>
   </si>
   <si>
-    <t>Please enter a valid email address</t>
-  </si>
-  <si>
-    <t>LGN-3</t>
-  </si>
-  <si>
-    <t>Try to login with invalid password</t>
-  </si>
-  <si>
-    <t>invalidUserPassword</t>
-  </si>
-  <si>
-    <t>Please enter your password</t>
-  </si>
-  <si>
-    <t>LGN-4</t>
-  </si>
-  <si>
-    <t>Try to login with wrong password</t>
-  </si>
-  <si>
-    <t>wrongUserPassword</t>
-  </si>
-  <si>
-    <t>Your username or password was incorrect.</t>
-  </si>
-  <si>
-    <t>LGN-5</t>
-  </si>
-  <si>
-    <t>Try to register without filling data.</t>
-  </si>
-  <si>
-    <t>Please enter your email address.
-Please enter your password.</t>
-  </si>
-  <si>
-    <t>LGN-6</t>
-  </si>
-  <si>
-    <t>Forgot password -Valid Email</t>
-  </si>
-  <si>
-    <t>Success!</t>
-  </si>
-  <si>
-    <t>LGN-7</t>
-  </si>
-  <si>
-    <t>Forgot password -Invalid Email</t>
-  </si>
-  <si>
     <t>U-16</t>
   </si>
   <si>
@@ -426,7 +353,15 @@
     <t>plants</t>
   </si>
   <si>
-    <t>Italy Milan,Italy Castera,Cyprus Nicosia,</t>
+    <t xml:space="preserve">This to generate a daily user report </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Italy Milan
+Italy Castera
+Cyprus Nicosia</t>
   </si>
 </sst>
 </file>
@@ -547,7 +482,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -604,12 +539,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -626,6 +555,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -952,39 +884,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="27"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1018,7 +950,7 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1026,7 +958,7 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1034,7 +966,7 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1042,7 +974,7 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1050,7 +982,7 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1058,7 +990,7 @@
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1066,7 +998,7 @@
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1074,7 +1006,7 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1082,7 +1014,7 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1090,7 +1022,7 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1098,7 +1030,7 @@
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1106,7 +1038,7 @@
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1121,10 +1053,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1133,11 +1065,10 @@
     <col min="3" max="3" width="33.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1">
+    <row r="1" spans="1:5" s="19" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1151,124 +1082,24 @@
         <v>22</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1312,7 +1143,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>24</v>
@@ -1332,7 +1163,7 @@
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1">
       <c r="A2" s="11" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>7</v>
@@ -1341,10 +1172,10 @@
         <v>40</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>31</v>
@@ -1361,7 +1192,7 @@
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1">
       <c r="A3" s="11" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>7</v>
@@ -1370,10 +1201,10 @@
         <v>40</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>31</v>
@@ -1390,7 +1221,7 @@
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>7</v>
@@ -1399,10 +1230,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>31</v>
@@ -1419,7 +1250,7 @@
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1">
       <c r="A5" s="11" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>7</v>
@@ -1428,10 +1259,10 @@
         <v>40</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>31</v>
@@ -1448,7 +1279,7 @@
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
@@ -1457,10 +1288,10 @@
         <v>40</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>31</v>
@@ -1477,7 +1308,7 @@
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1">
       <c r="A7" s="11" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>7</v>
@@ -1486,10 +1317,10 @@
         <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>31</v>
@@ -1506,7 +1337,7 @@
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1">
       <c r="A8" s="11" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>7</v>
@@ -1515,10 +1346,10 @@
         <v>40</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>31</v>
@@ -1535,7 +1366,7 @@
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1">
       <c r="A9" s="11" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>7</v>
@@ -1544,10 +1375,10 @@
         <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>31</v>
@@ -1564,7 +1395,7 @@
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1">
       <c r="A10" s="11" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>7</v>
@@ -1573,10 +1404,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>31</v>
@@ -1593,7 +1424,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="11" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>7</v>
@@ -1602,10 +1433,10 @@
         <v>40</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>31</v>
@@ -1622,7 +1453,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>7</v>
@@ -1631,10 +1462,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>31</v>
@@ -1651,7 +1482,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>7</v>
@@ -1660,10 +1491,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>31</v>
@@ -1675,12 +1506,12 @@
         <v>29</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>7</v>
@@ -1689,10 +1520,10 @@
         <v>40</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>31</v>
@@ -1704,12 +1535,12 @@
         <v>29</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>7</v>
@@ -1718,10 +1549,10 @@
         <v>40</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>31</v>
@@ -1733,12 +1564,12 @@
         <v>29</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>7</v>
@@ -1747,10 +1578,10 @@
         <v>40</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>31</v>
@@ -1762,12 +1593,12 @@
         <v>29</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="11" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>7</v>
@@ -1776,10 +1607,10 @@
         <v>40</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>31</v>
@@ -1791,12 +1622,12 @@
         <v>29</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="11" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>7</v>
@@ -1805,10 +1636,10 @@
         <v>40</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>31</v>
@@ -1820,12 +1651,12 @@
         <v>29</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>7</v>
@@ -1834,10 +1665,10 @@
         <v>40</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>31</v>
@@ -1849,12 +1680,12 @@
         <v>29</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="11" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>7</v>
@@ -1863,10 +1694,10 @@
         <v>40</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>31</v>
@@ -1878,12 +1709,12 @@
         <v>29</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="11" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>7</v>
@@ -1892,10 +1723,10 @@
         <v>40</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>31</v>
@@ -1912,7 +1743,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="11" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>7</v>
@@ -1921,10 +1752,10 @@
         <v>40</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>31</v>
@@ -1941,7 +1772,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="11" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>7</v>
@@ -1950,10 +1781,10 @@
         <v>40</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>31</v>
@@ -1970,7 +1801,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>7</v>
@@ -1979,10 +1810,10 @@
         <v>40</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>31</v>
@@ -1999,7 +1830,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>7</v>
@@ -2008,10 +1839,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>31</v>
@@ -2028,7 +1859,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>7</v>
@@ -2037,10 +1868,10 @@
         <v>40</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>31</v>
@@ -2052,12 +1883,12 @@
         <v>29</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="11" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>7</v>
@@ -2066,10 +1897,10 @@
         <v>40</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>31</v>
@@ -2081,12 +1912,12 @@
         <v>29</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="11" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>7</v>
@@ -2095,10 +1926,10 @@
         <v>40</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>31</v>
@@ -2110,12 +1941,12 @@
         <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="11" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>7</v>
@@ -2124,10 +1955,10 @@
         <v>40</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>31</v>
@@ -2139,12 +1970,12 @@
         <v>29</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="11" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>7</v>
@@ -2153,10 +1984,10 @@
         <v>40</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>31</v>
@@ -2168,12 +1999,12 @@
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="11" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>7</v>
@@ -2182,10 +2013,10 @@
         <v>40</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>31</v>
@@ -2197,12 +2028,12 @@
         <v>29</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="11" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>7</v>
@@ -2211,10 +2042,10 @@
         <v>40</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>31</v>
@@ -2226,12 +2057,12 @@
         <v>29</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="11" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>7</v>
@@ -2240,10 +2071,10 @@
         <v>40</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>31</v>
@@ -2255,7 +2086,7 @@
         <v>29</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2470,7 +2301,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2479,42 +2310,42 @@
     <col min="2" max="2" width="10.140625" style="6" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20.85546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="29" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>133</v>
+        <v>105</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
